--- a/cmp_web/src/main/resources/static/qrTemplate/Eqplistemplate.xlsx
+++ b/cmp_web/src/main/resources/static/qrTemplate/Eqplistemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd041813d2c2955a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd041813d2c2955a/바탕 화면/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F5D926-B4D2-474F-932C-2418033CB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D39AC9BF-0F29-499E-824C-09005D7996FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C577CB16-C0B5-4E39-9E8F-EAECA57B5885}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{46886761-F22D-484C-8BB2-E832FFC35272}"/>
   </bookViews>
@@ -33,6 +33,51 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>장비그룹명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>랙번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스트명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도입년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -76,9 +121,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,12 +462,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82602654-AD7D-4186-BCCB-6885D859E1EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
